--- a/paper_templates/APD02_paper.xlsx
+++ b/paper_templates/APD02_paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\SnowBall\paper_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E754056E-5514-4C19-95FE-9D32D55C7E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F25525-ADA7-4EE1-98E7-204499D0A9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28605" yWindow="16290" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E3EE22-C542-4402-8654-7D4EE4676255}"/>
+    <workbookView xWindow="28680" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{F5E3EE22-C542-4402-8654-7D4EE4676255}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing Table" sheetId="1" r:id="rId1"/>
@@ -671,6 +671,34 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -680,22 +708,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -706,18 +718,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1063,8 +1063,8 @@
   </sheetPr>
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1084,73 +1084,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="1" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="2:14" ht="6" customHeight="1" thickBot="1"/>
     <row r="3" spans="2:14" ht="24.95" customHeight="1">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="2:14" s="4" customFormat="1" ht="13.5">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="22" t="s">
         <v>5</v>
       </c>
     </row>
